--- a/find_similiar_player_to_Hachimura/top10_similiar_player_and_average_stats.xlsx
+++ b/find_similiar_player_to_Hachimura/top10_similiar_player_and_average_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhaim\Desktop\DataForBlog\basketball_data_analysis\find_similiar_player_to_Hachimura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C9E7E-9C5F-4758-97FF-7EB77F95C99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AC6E7-4242-4E4B-A782-E9D7EE966288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{67AD2F8D-B4B0-4138-8563-4754C93C6ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{67AD2F8D-B4B0-4138-8563-4754C93C6ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -249,6 +249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +572,7 @@
   <dimension ref="B2:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -627,10 +630,10 @@
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -671,7 +674,7 @@
       <c r="H3" s="9">
         <v>0.27400000000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="10">
         <v>5.9</v>
       </c>
       <c r="J3" s="3">
@@ -695,10 +698,10 @@
       <c r="P3" s="2">
         <v>5.5</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="10">
         <v>7.3</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="10">
         <v>2.1</v>
       </c>
       <c r="S3" s="3">
@@ -739,7 +742,7 @@
       <c r="H4" s="9">
         <v>0.26100000000000001</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="10">
         <v>5.5</v>
       </c>
       <c r="J4" s="3">
@@ -763,10 +766,10 @@
       <c r="P4" s="2">
         <v>5.3</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="10">
         <v>7.6</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="10">
         <v>1.7</v>
       </c>
       <c r="S4" s="3">
@@ -807,7 +810,7 @@
       <c r="H5" s="9">
         <v>0.25</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="10">
         <v>5.4</v>
       </c>
       <c r="J5" s="3">
@@ -831,10 +834,10 @@
       <c r="P5" s="2">
         <v>3.4</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="10">
         <v>4.8</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="S5" s="3">
@@ -875,7 +878,7 @@
       <c r="H6" s="9">
         <v>0.23799999999999999</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>6.3</v>
       </c>
       <c r="J6" s="3">
@@ -899,10 +902,10 @@
       <c r="P6" s="2">
         <v>2.6</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="10">
         <v>5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="10">
         <v>1.5</v>
       </c>
       <c r="S6" s="3">
@@ -943,7 +946,7 @@
       <c r="H7" s="9">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="10">
         <v>5.3</v>
       </c>
       <c r="J7" s="3">
@@ -967,10 +970,10 @@
       <c r="P7" s="2">
         <v>2.9</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="10">
         <v>2.1</v>
       </c>
       <c r="S7" s="3">
@@ -1011,7 +1014,7 @@
       <c r="H8" s="9">
         <v>0.376</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="10">
         <v>3.7</v>
       </c>
       <c r="J8" s="3">
@@ -1035,10 +1038,10 @@
       <c r="P8" s="2">
         <v>5.2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="10">
         <v>7.7</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="10">
         <v>1.6</v>
       </c>
       <c r="S8" s="3">
@@ -1079,7 +1082,7 @@
       <c r="H9" s="9">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="10">
         <v>3.9</v>
       </c>
       <c r="J9" s="3">
@@ -1103,10 +1106,10 @@
       <c r="P9" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="10">
         <v>5.8</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="10">
         <v>1.7</v>
       </c>
       <c r="S9" s="3">
@@ -1147,7 +1150,7 @@
       <c r="H10" s="9">
         <v>0.182</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="10">
         <v>3</v>
       </c>
       <c r="J10" s="3">
@@ -1171,10 +1174,10 @@
       <c r="P10" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="10">
         <v>5.6</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="10">
         <v>1.4</v>
       </c>
       <c r="S10" s="3">
@@ -1215,7 +1218,7 @@
       <c r="H11" s="9">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="10">
         <v>3.7</v>
       </c>
       <c r="J11" s="3">
@@ -1239,10 +1242,10 @@
       <c r="P11" s="2">
         <v>5.4</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="10">
         <v>6.9</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="10">
         <v>2</v>
       </c>
       <c r="S11" s="3">
@@ -1283,7 +1286,7 @@
       <c r="H12" s="9">
         <v>0.38200000000000001</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="10">
         <v>3.7</v>
       </c>
       <c r="J12" s="3">
@@ -1307,10 +1310,10 @@
       <c r="P12" s="2">
         <v>2.5</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="10">
         <v>3.4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="S12" s="3">
@@ -1351,7 +1354,7 @@
       <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>6.4</v>
       </c>
       <c r="J13" s="3">
@@ -1375,10 +1378,10 @@
       <c r="P13" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="10">
         <v>6.1</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="10">
         <v>7.5</v>
       </c>
       <c r="S13" s="3">
